--- a/Aula_00/Planilha curso.xlsx
+++ b/Aula_00/Planilha curso.xlsx
@@ -5,34 +5,35 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb003228\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Curso_AOT\Aula_00\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Operadores aritméticos" sheetId="1" r:id="rId1"/>
-    <sheet name="Operadores lógicos" sheetId="2" r:id="rId2"/>
-    <sheet name="Operadores de comparação" sheetId="3" r:id="rId3"/>
-    <sheet name="Operadores Bit a Bit" sheetId="5" r:id="rId4"/>
-    <sheet name="Outros Operadores" sheetId="4" r:id="rId5"/>
-    <sheet name="condicionais" sheetId="7" r:id="rId6"/>
-    <sheet name="loops for - For Each" sheetId="8" r:id="rId7"/>
-    <sheet name="loops while - Do-While" sheetId="9" r:id="rId8"/>
-    <sheet name="tipos de dados " sheetId="10" r:id="rId9"/>
-    <sheet name="variáveis" sheetId="11" r:id="rId10"/>
-    <sheet name="variáveis primitivas" sheetId="13" r:id="rId11"/>
-    <sheet name="funções e procedimentos" sheetId="12" r:id="rId12"/>
-    <sheet name="entrada e saída" sheetId="14" r:id="rId13"/>
-    <sheet name="estruturas de dados" sheetId="15" r:id="rId14"/>
-    <sheet name="orientação a objetos" sheetId="16" r:id="rId15"/>
-    <sheet name="tratamento de exceções" sheetId="17" r:id="rId16"/>
-    <sheet name="bibliotecas padrão" sheetId="18" r:id="rId17"/>
-    <sheet name="gerenciamento de memória" sheetId="19" r:id="rId18"/>
-    <sheet name="concorrência e paralelismo" sheetId="20" r:id="rId19"/>
-    <sheet name="Estruturas de Dados Avançadas" sheetId="21" r:id="rId20"/>
-    <sheet name=" Programação Funcional" sheetId="22" r:id="rId21"/>
+    <sheet name="Características" sheetId="23" r:id="rId1"/>
+    <sheet name="Operadores aritméticos" sheetId="1" r:id="rId2"/>
+    <sheet name="Operadores lógicos" sheetId="2" r:id="rId3"/>
+    <sheet name="Operadores de comparação" sheetId="3" r:id="rId4"/>
+    <sheet name="Operadores Bit a Bit" sheetId="5" r:id="rId5"/>
+    <sheet name="Outros Operadores" sheetId="4" r:id="rId6"/>
+    <sheet name="condicionais" sheetId="7" r:id="rId7"/>
+    <sheet name="loops for - For Each" sheetId="8" r:id="rId8"/>
+    <sheet name="loops while - Do-While" sheetId="9" r:id="rId9"/>
+    <sheet name="tipos de dados " sheetId="10" r:id="rId10"/>
+    <sheet name="variáveis" sheetId="11" r:id="rId11"/>
+    <sheet name="variáveis primitivas" sheetId="13" r:id="rId12"/>
+    <sheet name="funções e procedimentos" sheetId="12" r:id="rId13"/>
+    <sheet name="entrada e saída" sheetId="14" r:id="rId14"/>
+    <sheet name="estruturas de dados" sheetId="15" r:id="rId15"/>
+    <sheet name="orientação a objetos" sheetId="16" r:id="rId16"/>
+    <sheet name="tratamento de exceções" sheetId="17" r:id="rId17"/>
+    <sheet name="bibliotecas padrão" sheetId="18" r:id="rId18"/>
+    <sheet name="gerenciamento de memória" sheetId="19" r:id="rId19"/>
+    <sheet name="concorrência e paralelismo" sheetId="20" r:id="rId20"/>
+    <sheet name="Estruturas de Dados Avançadas" sheetId="21" r:id="rId21"/>
+    <sheet name=" Programação Funcional" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="564">
   <si>
     <t>Operador</t>
   </si>
@@ -1682,12 +1683,78 @@
   <si>
     <t>x = 10 (variável imutável)</t>
   </si>
+  <si>
+    <t>Linguagem</t>
+  </si>
+  <si>
+    <t>Paradigma</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Tipagem</t>
+  </si>
+  <si>
+    <t>Compilação</t>
+  </si>
+  <si>
+    <t>Orientado a objetos, funcional</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>Estática</t>
+  </si>
+  <si>
+    <t>Compilada</t>
+  </si>
+  <si>
+    <t>Multiparadigma</t>
+  </si>
+  <si>
+    <t>Dinâmica</t>
+  </si>
+  <si>
+    <t>Interpretada</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Imperativo, estruturado</t>
+  </si>
+  <si>
+    <t>Fraco</t>
+  </si>
+  <si>
+    <t>Imperativo, orientado a objetos, funcional</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Principais linguagens e suas características</t>
+  </si>
+  <si>
+    <t>Orientado a objetos, imperativo, estruturado</t>
+  </si>
+  <si>
+    <t>:=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,6 +1838,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1780,7 +1860,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2568,11 +2648,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,44 +2757,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2746,15 +2808,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2791,12 +2844,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2816,9 +2863,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2844,6 +2888,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2852,6 +2950,49 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3133,170 +3274,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A1" s="77" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="B3" s="109" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>549</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="B4" s="98" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="B5" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="B6" s="98" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="B7" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>17</v>
+      <c r="B8" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="99" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>555</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>549</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="99" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>551</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3305,10 +3498,324 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="C1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,197 +3830,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="54" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3525,7 +4032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3545,243 +4052,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>536</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>540</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="51" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="51" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="51" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="51" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="54" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3793,7 +4300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3813,128 +4320,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="54" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3946,12 +4453,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,353 +4473,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="54" t="s">
         <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.7109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="84" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="84" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="84" customWidth="1"/>
-    <col min="8" max="16384" width="25.140625" style="84"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="85"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4329,172 +4566,261 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="56.42578125" style="57" customWidth="1"/>
-    <col min="8" max="16384" width="58.28515625" style="57"/>
+    <col min="1" max="1" width="33.7109375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="67" customWidth="1"/>
+    <col min="8" max="16384" width="25.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:7" s="60" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="93" t="s">
+      <c r="A1" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="58" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="58" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>529</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="58" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="58" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>528</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="58" customFormat="1" ht="177.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>520</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>523</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>526</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>527</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="86"/>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4507,6 +4833,187 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="58.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" style="45" customWidth="1"/>
+    <col min="8" max="16384" width="58.28515625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:7" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="46" customFormat="1" ht="177.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,162 +5022,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" style="58" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="32.7109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="46" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>493</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>493</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:7" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="54" t="s">
         <v>507</v>
       </c>
     </row>
@@ -4679,230 +5186,6 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>454</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>457</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>458</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>469</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>477</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>480</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>481</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>482</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4916,208 +5199,432 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="58" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="28.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="46" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>448</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="51" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="51" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="54" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5129,7 +5636,179 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5147,128 +5826,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>440</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="54" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5280,158 +5959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5462,232 +5990,232 @@
       <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="51" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="51" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="51" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="51" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="54" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5699,7 +6227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -5719,220 +6247,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>387</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="51" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="51" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="51" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="51" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:7" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="54" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5945,6 +6473,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -5959,15 +6638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
@@ -6123,7 +6802,7 @@
       <c r="E8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -6134,7 +6813,7 @@
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="40" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -6146,7 +6825,7 @@
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="43" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -6157,7 +6836,7 @@
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="41" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -6169,7 +6848,7 @@
       <c r="E10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="44" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -6184,7 +6863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -6199,18 +6878,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6228,12 +6907,12 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -6251,12 +6930,12 @@
       <c r="F3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -6274,12 +6953,12 @@
       <c r="F4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -6297,12 +6976,12 @@
       <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -6320,12 +6999,12 @@
       <c r="F6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -6343,309 +7022,36 @@
       <c r="F7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6657,6 +7063,279 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -6675,128 +7354,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="54" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6808,7 +7487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6828,105 +7507,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="51" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="54" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6938,7 +7617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -6956,397 +7635,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="57" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="54" t="s">
         <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
